--- a/Card Sorting/Begriffe.xlsx
+++ b/Card Sorting/Begriffe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\redesign-ur-rz\Card Sorting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mero\Desktop\redesign-ur-rz\Card Sorting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="28800" windowHeight="16512" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Erste Ebene " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="255">
   <si>
     <t xml:space="preserve">Aktuelle Bezichnung </t>
   </si>
@@ -598,13 +598,205 @@
   </si>
   <si>
     <t>Organisationsübersicht</t>
+  </si>
+  <si>
+    <t>Mein RZ-Passwort ändern</t>
+  </si>
+  <si>
+    <t>Mein Profil</t>
+  </si>
+  <si>
+    <t>Mein Drucken</t>
+  </si>
+  <si>
+    <t>Mein WebPrint</t>
+  </si>
+  <si>
+    <t>Meine Netzwerkgeräte</t>
+  </si>
+  <si>
+    <t>Meine E-Mail</t>
+  </si>
+  <si>
+    <t>Meine Smartphone Synchronisation</t>
+  </si>
+  <si>
+    <t>CIP- Pool informationen</t>
+  </si>
+  <si>
+    <t>Informationen zum CMS Imperia</t>
+  </si>
+  <si>
+    <t>Support Drucken</t>
+  </si>
+  <si>
+    <t>Informationen email</t>
+  </si>
+  <si>
+    <t>Infostand</t>
+  </si>
+  <si>
+    <t>Internet im Wohnheim</t>
+  </si>
+  <si>
+    <t>Erweiterter IT Support</t>
+  </si>
+  <si>
+    <t>Netzlaufwerke und Dateidienste</t>
+  </si>
+  <si>
+    <t>Passwort vergessen</t>
+  </si>
+  <si>
+    <t>Support zur Smartphone Synchronisation</t>
+  </si>
+  <si>
+    <t>Softwareangebot Uni Regensburg</t>
+  </si>
+  <si>
+    <t>Informationen zur Nutzung des Wlans der Uni Regensburg</t>
+  </si>
+  <si>
+    <t>Workgroupmanager (Benutzerverwaltung der einzelnen Lehrstühle )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationen zu den verschiedenen Windows-Versionen </t>
+  </si>
+  <si>
+    <t>Software für Windows</t>
+  </si>
+  <si>
+    <t>Informationen für Linux</t>
+  </si>
+  <si>
+    <t>Informationen zum Office Paket</t>
+  </si>
+  <si>
+    <t>Softwaredokumentation</t>
+  </si>
+  <si>
+    <t>Apps an der Uni Regensburg</t>
+  </si>
+  <si>
+    <t>Rabatte für Mac Produkte</t>
+  </si>
+  <si>
+    <t>Liefern von Hardware</t>
+  </si>
+  <si>
+    <t>Reparatur von Hardware</t>
+  </si>
+  <si>
+    <t>Geräteausleihe</t>
+  </si>
+  <si>
+    <t>Schadensmeldung von Hardware an der Uni Regensburg</t>
+  </si>
+  <si>
+    <t>CIP-Pool-Reservierung</t>
+  </si>
+  <si>
+    <t>Informationen zu E-Prüfungen</t>
+  </si>
+  <si>
+    <t>Informationen zu GRIPS</t>
+  </si>
+  <si>
+    <t>Informationen  IT-Fortbildungen für Bedienstete</t>
+  </si>
+  <si>
+    <t>mediathek Uni Regensburg</t>
+  </si>
+  <si>
+    <t>Informationen zur Studienbegleitenden IT-Ausbildung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationen zu Vorlesungsaufzeichnungen </t>
+  </si>
+  <si>
+    <t>Weiterbildung im Bereich Mediengestaltung</t>
+  </si>
+  <si>
+    <t>Informationen zur Speicherarchitektur der Universität Regensburg</t>
+  </si>
+  <si>
+    <t>Informationen fürs Drucken an der Uni Regensburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationen zu email </t>
+  </si>
+  <si>
+    <t>Informationen fürs Groupwise an der Uni Regensburg</t>
+  </si>
+  <si>
+    <t>Faxen an der UR</t>
+  </si>
+  <si>
+    <t>Formularscannservice an der UR</t>
+  </si>
+  <si>
+    <t>Mediethek UR</t>
+  </si>
+  <si>
+    <t>Informationen für einen Zeitserver</t>
+  </si>
+  <si>
+    <t>informationen zu Scientific Computing</t>
+  </si>
+  <si>
+    <t>Informationen für Videokonferenzen</t>
+  </si>
+  <si>
+    <t>Informationen zu Virenscannern</t>
+  </si>
+  <si>
+    <t>Informationen zur Virtualisierung von Desktop PC´s</t>
+  </si>
+  <si>
+    <t>Informationen zu Webdiensten an der UR</t>
+  </si>
+  <si>
+    <t>Windows Update Dienst</t>
+  </si>
+  <si>
+    <t>Linux Installationsdienst</t>
+  </si>
+  <si>
+    <t>Kicken da steht nix auf der Webseite :)</t>
+  </si>
+  <si>
+    <t>Kontakt UR</t>
+  </si>
+  <si>
+    <t>Ausbildung am Rechenzentrum</t>
+  </si>
+  <si>
+    <t>Mitarbeiter UR</t>
+  </si>
+  <si>
+    <t>Anfahrt und Lagepläne</t>
+  </si>
+  <si>
+    <t>Information zu den Arbeitsgruppen des RZ</t>
+  </si>
+  <si>
+    <t>Berichte zur Verwendung von Studienbeiträgen</t>
+  </si>
+  <si>
+    <t>Rechtliches ( Benutzerordung etc)</t>
+  </si>
+  <si>
+    <t>Webserver Dokumentation</t>
+  </si>
+  <si>
+    <t>Hannes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -624,6 +816,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -646,13 +844,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -939,11 +1138,11 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="27.625" customWidth="1"/>
-    <col min="2" max="2" width="41.375" customWidth="1"/>
-    <col min="3" max="3" width="39.375" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" customWidth="1"/>
+    <col min="2" max="2" width="41.3984375" customWidth="1"/>
+    <col min="3" max="3" width="39.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1045,7 +1244,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="63">
+    <row r="11" spans="1:3" ht="62.4">
       <c r="C11" s="3" t="s">
         <v>172</v>
       </c>
@@ -1057,21 +1256,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="C75" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="27.625" customWidth="1"/>
-    <col min="2" max="2" width="41.375" customWidth="1"/>
-    <col min="3" max="3" width="77.125" customWidth="1"/>
-    <col min="4" max="4" width="55.25" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" customWidth="1"/>
+    <col min="2" max="2" width="41.3984375" customWidth="1"/>
+    <col min="3" max="3" width="77.09765625" customWidth="1"/>
+    <col min="4" max="4" width="55.19921875" customWidth="1"/>
+    <col min="5" max="5" width="47.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1084,8 +1284,11 @@
       <c r="D1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1098,8 +1301,11 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1318,11 @@
       <c r="D4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1126,8 +1335,11 @@
       <c r="D5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1140,8 +1352,11 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1154,8 +1369,11 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1168,8 +1386,11 @@
       <c r="D8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1182,8 +1403,11 @@
       <c r="D9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1196,8 +1420,11 @@
       <c r="D10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1210,8 +1437,11 @@
       <c r="D12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1224,8 +1454,11 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1238,8 +1471,11 @@
       <c r="D14" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1252,8 +1488,11 @@
       <c r="D15" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1266,8 +1505,11 @@
       <c r="D16" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1280,8 +1522,11 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1294,8 +1539,11 @@
       <c r="D18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1308,8 +1556,11 @@
       <c r="D19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1322,8 +1573,11 @@
       <c r="D20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1336,8 +1590,11 @@
       <c r="D21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1350,8 +1607,11 @@
       <c r="D22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1364,8 +1624,11 @@
       <c r="D23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1378,8 +1641,11 @@
       <c r="D24" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1392,8 +1658,11 @@
       <c r="D25" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1406,8 +1675,11 @@
       <c r="D26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1420,8 +1692,11 @@
       <c r="D27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1434,8 +1709,11 @@
       <c r="D28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E28" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1448,8 +1726,11 @@
       <c r="D30" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1462,8 +1743,11 @@
       <c r="D31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1476,8 +1760,11 @@
       <c r="D32" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1490,8 +1777,11 @@
       <c r="D33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1504,8 +1794,11 @@
       <c r="D34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1518,8 +1811,11 @@
       <c r="D35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1532,8 +1828,11 @@
       <c r="D36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1546,8 +1845,11 @@
       <c r="D37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1560,8 +1862,11 @@
       <c r="D38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1574,8 +1879,11 @@
       <c r="D39" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1588,8 +1896,11 @@
       <c r="D41" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1603,7 +1914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1616,8 +1927,11 @@
       <c r="D43" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -1630,8 +1944,11 @@
       <c r="D44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -1644,8 +1961,11 @@
       <c r="D45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -1658,8 +1978,11 @@
       <c r="D46" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -1672,8 +1995,11 @@
       <c r="D48" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1686,8 +2012,11 @@
       <c r="D49" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -1700,8 +2029,11 @@
       <c r="D50" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -1714,8 +2046,11 @@
       <c r="D51" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -1728,8 +2063,11 @@
       <c r="D52" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -1742,8 +2080,11 @@
       <c r="D53" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -1756,8 +2097,11 @@
       <c r="D54" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -1770,8 +2114,11 @@
       <c r="D55" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -1785,7 +2132,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1798,8 +2145,11 @@
       <c r="D58" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -1812,8 +2162,11 @@
       <c r="D59" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -1826,8 +2179,11 @@
       <c r="D60" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -1840,8 +2196,11 @@
       <c r="D61" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -1854,8 +2213,11 @@
       <c r="D62" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -1868,8 +2230,11 @@
       <c r="D63" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -1882,8 +2247,11 @@
       <c r="D64" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -1896,8 +2264,11 @@
       <c r="D65" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -1910,8 +2281,11 @@
       <c r="D66" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -1924,8 +2298,11 @@
       <c r="D67" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -1938,8 +2315,11 @@
       <c r="D68" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -1952,8 +2332,11 @@
       <c r="D69" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -1966,8 +2349,11 @@
       <c r="D70" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -1980,8 +2366,11 @@
       <c r="D71" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -1994,8 +2383,11 @@
       <c r="D72" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2008,8 +2400,11 @@
       <c r="D73" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -2022,8 +2417,11 @@
       <c r="D74" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -2036,8 +2434,11 @@
       <c r="D75" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -2050,8 +2451,11 @@
       <c r="D76" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -2064,8 +2468,11 @@
       <c r="D77" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E77" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -2078,8 +2485,11 @@
       <c r="D79" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -2092,8 +2502,11 @@
       <c r="D80" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2106,8 +2519,11 @@
       <c r="D81" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -2120,8 +2536,11 @@
       <c r="D82" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -2134,8 +2553,11 @@
       <c r="D83" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -2148,8 +2570,11 @@
       <c r="D84" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -2162,8 +2587,11 @@
       <c r="D85" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -2176,8 +2604,11 @@
       <c r="D86" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -2190,8 +2621,11 @@
       <c r="D87" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -2204,8 +2638,11 @@
       <c r="D88" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E88" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>142</v>
       </c>
@@ -2217,6 +2654,9 @@
       </c>
       <c r="D90" t="s">
         <v>143</v>
+      </c>
+      <c r="E90" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/Card Sorting/Begriffe.xlsx
+++ b/Card Sorting/Begriffe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="277">
   <si>
     <t xml:space="preserve">Aktuelle Bezichnung </t>
   </si>
@@ -789,14 +789,80 @@
     <t>Webserver Dokumentation</t>
   </si>
   <si>
-    <t>Hannes</t>
+    <t>Vorschlag für Card Sorting (Hannes)</t>
+  </si>
+  <si>
+    <t>Endgültige Begriffe</t>
+  </si>
+  <si>
+    <t>Verfügbare Drucker</t>
+  </si>
+  <si>
+    <t>Geräteregistrierung</t>
+  </si>
+  <si>
+    <t>Zugang zum Email Account</t>
+  </si>
+  <si>
+    <t>RZ-Account mit Smartphone verbinden</t>
+  </si>
+  <si>
+    <t>CIP- Pool Informationen</t>
+  </si>
+  <si>
+    <t>Content Management System Imperia</t>
+  </si>
+  <si>
+    <t>Drucker Information</t>
+  </si>
+  <si>
+    <t>Formulare und Anträge</t>
+  </si>
+  <si>
+    <t>VPN (Virtual Private Network)</t>
+  </si>
+  <si>
+    <t>Wlan Nutzung der Universität Regensburg</t>
+  </si>
+  <si>
+    <t>Softwarebeschaffung über die Universität Regensburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows für Mitarbeiter und Studierende </t>
+  </si>
+  <si>
+    <t>Auflistung aller downloadbarer Software (Softwarekatalog)</t>
+  </si>
+  <si>
+    <t>Empfohlene Apps der Uni Regensburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computergestütze Prüfungen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRIPS </t>
+  </si>
+  <si>
+    <t>Aufzeichnungen von Vorlesungen</t>
+  </si>
+  <si>
+    <t>Virenscanner</t>
+  </si>
+  <si>
+    <t>Spamquarantäne</t>
+  </si>
+  <si>
+    <t>Groupwise ( Mailservice)</t>
+  </si>
+  <si>
+    <t>Automatisierte Windows-Installation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1138,14 +1204,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.59765625" customWidth="1"/>
     <col min="2" max="2" width="41.3984375" customWidth="1"/>
     <col min="3" max="3" width="39.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1222,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1233,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1178,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1189,7 +1255,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +1277,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1222,7 +1288,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1299,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1310,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="62.4">
+    <row r="11" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>172</v>
       </c>
@@ -1256,22 +1322,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C75" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.59765625" customWidth="1"/>
     <col min="2" max="2" width="41.3984375" customWidth="1"/>
     <col min="3" max="3" width="77.09765625" customWidth="1"/>
     <col min="4" max="4" width="55.19921875" customWidth="1"/>
-    <col min="5" max="5" width="47.296875" customWidth="1"/>
+    <col min="5" max="5" width="77.69921875" customWidth="1"/>
+    <col min="6" max="6" width="72.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1287,8 +1354,11 @@
       <c r="E1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1304,8 +1374,11 @@
       <c r="E3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1321,8 +1394,11 @@
       <c r="E4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1338,8 +1414,11 @@
       <c r="E5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1355,8 +1434,11 @@
       <c r="E6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1372,8 +1454,11 @@
       <c r="E7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1389,8 +1474,11 @@
       <c r="E8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1406,8 +1494,11 @@
       <c r="E9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1423,8 +1514,11 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1440,8 +1534,11 @@
       <c r="E12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1457,8 +1554,11 @@
       <c r="E13" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1474,8 +1574,11 @@
       <c r="E14" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1491,8 +1594,11 @@
       <c r="E15" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1508,8 +1614,11 @@
       <c r="E16" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1525,8 +1634,11 @@
       <c r="E17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1542,8 +1654,11 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1559,8 +1674,11 @@
       <c r="E19" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1576,8 +1694,11 @@
       <c r="E20" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1593,8 +1714,11 @@
       <c r="E21" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1610,8 +1734,11 @@
       <c r="E22" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1627,8 +1754,11 @@
       <c r="E23" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1775,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +1792,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1678,8 +1808,11 @@
       <c r="E26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1695,8 +1828,11 @@
       <c r="E27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1712,8 +1848,11 @@
       <c r="E28" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1729,8 +1868,11 @@
       <c r="E30" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1746,8 +1888,11 @@
       <c r="E31" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1763,8 +1908,11 @@
       <c r="E32" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1780,8 +1928,11 @@
       <c r="E33" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1797,8 +1948,11 @@
       <c r="E34" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1814,8 +1968,11 @@
       <c r="E35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1831,8 +1988,11 @@
       <c r="E36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1848,8 +2008,11 @@
       <c r="E37" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1865,8 +2028,11 @@
       <c r="E38" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1883,7 +2049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1899,8 +2065,11 @@
       <c r="E41" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1913,8 +2082,11 @@
       <c r="D42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1930,8 +2102,11 @@
       <c r="E43" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -1947,8 +2122,11 @@
       <c r="E44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -1964,8 +2142,11 @@
       <c r="E45" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -1981,8 +2162,11 @@
       <c r="E46" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -1998,8 +2182,11 @@
       <c r="E48" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2015,8 +2202,11 @@
       <c r="E49" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -2032,8 +2222,11 @@
       <c r="E50" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2049,8 +2242,11 @@
       <c r="E51" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -2066,8 +2262,11 @@
       <c r="E52" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -2083,8 +2282,11 @@
       <c r="E53" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -2100,8 +2302,11 @@
       <c r="E54" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -2117,8 +2322,11 @@
       <c r="E55" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -2131,8 +2339,11 @@
       <c r="D56" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2149,7 +2360,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2165,8 +2376,11 @@
       <c r="E59" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2182,8 +2396,11 @@
       <c r="E60" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2199,8 +2416,11 @@
       <c r="E61" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -2217,7 +2437,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2233,8 +2453,11 @@
       <c r="E63" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2250,8 +2473,11 @@
       <c r="E64" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -2267,8 +2493,11 @@
       <c r="E65" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2284,8 +2513,11 @@
       <c r="E66" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -2302,7 +2534,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -2318,8 +2550,11 @@
       <c r="E68" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -2335,8 +2570,11 @@
       <c r="E69" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -2352,8 +2590,11 @@
       <c r="E70" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2369,8 +2610,11 @@
       <c r="E71" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2386,8 +2630,11 @@
       <c r="E72" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2403,8 +2650,11 @@
       <c r="E73" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -2420,8 +2670,11 @@
       <c r="E74" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -2437,8 +2690,11 @@
       <c r="E75" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -2454,8 +2710,11 @@
       <c r="E76" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -2472,7 +2731,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -2488,8 +2747,11 @@
       <c r="E79" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -2505,8 +2767,11 @@
       <c r="E80" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2522,8 +2787,11 @@
       <c r="E81" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -2539,8 +2807,11 @@
       <c r="E82" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -2556,8 +2827,11 @@
       <c r="E83" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -2573,8 +2847,11 @@
       <c r="E84" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -2590,8 +2867,11 @@
       <c r="E85" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -2607,8 +2887,11 @@
       <c r="E86" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -2624,8 +2907,11 @@
       <c r="E87" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -2641,8 +2927,11 @@
       <c r="E88" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>142</v>
       </c>
@@ -2657,6 +2946,9 @@
       </c>
       <c r="E90" t="s">
         <v>253</v>
+      </c>
+      <c r="F90" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
